--- a/Worktopia_cod/src/main/resources/Docs/Factura_3.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Factura_3.xlsx
@@ -81,22 +81,22 @@
     <t>3</t>
   </si>
   <si>
-    <t>45678901D</t>
-  </si>
-  <si>
-    <t>2025-03-03 18:55:56</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>678123456</t>
-  </si>
-  <si>
-    <t>dianafernandez@yahoo.com</t>
-  </si>
-  <si>
-    <t>Reserva ID: 23 Asiento ID: 19 fecha y hora de inicio 2025-03-04T08:00 y fin 2025-03-04T13:00</t>
+    <t>34567890M</t>
+  </si>
+  <si>
+    <t>2025-03-09 19:17:44</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>678901567</t>
+  </si>
+  <si>
+    <t>mariagonzalez@gmail.com</t>
+  </si>
+  <si>
+    <t>Reserva ID: 28 Asiento ID: 13 fecha y hora de inicio 2025-03-05T08:00 y fin 2025-03-05T11:00</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="5" t="n">
-        <v>40.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>37.3832</v>
+        <v>4.2056</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.616824</v>
+        <v>0.294392</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>40.0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">

--- a/Worktopia_cod/src/main/resources/Docs/Factura_3.xlsx
+++ b/Worktopia_cod/src/main/resources/Docs/Factura_3.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Worktopia SL</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Reserva ID: 28 Asiento ID: 13 fecha y hora de inicio 2025-03-05T08:00 y fin 2025-03-05T11:00</t>
+  </si>
+  <si>
+    <t>Reserva ID: 29 Asiento ID: 20 fecha y hora de inicio 2025-03-12T08:00 y fin 2025-03-12T11:00</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="6"/>
+      <c r="A19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -821,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>4.2056</v>
+        <v>29.2991</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.294392</v>
+        <v>2.050937</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,10 +845,10 @@
         <v>15</v>
       </c>
       <c r="G46" s="8" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>4.5</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -848,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>4.5</v>
+        <v>31.35</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
